--- a/temp_traits.xlsx
+++ b/temp_traits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FangCloudSync\R_WD360\Project\soyplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1DD5E6-5047-4507-ADA1-02973B3E9EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20DF783-7213-40B5-BF3B-B8C0CF04A953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3795" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -620,9 +620,6 @@
   </si>
   <si>
     <t>1-圆_2-扁圆_3-椭圆_4-扁椭圆_5-长椭圆_6-肾_99-分离</t>
-  </si>
-  <si>
-    <t>1-黄_2-黑_3-青黄_99-分离</t>
   </si>
   <si>
     <t>1-黄_2-绿_99-分离</t>
@@ -855,6 +852,128 @@
         <scheme val="minor"/>
       </rPr>
       <t>高感</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_4-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>褐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>双色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_99-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分离</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1224,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="O63" sqref="O63"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1341,7 +1460,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -1371,7 +1490,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
@@ -1489,7 +1608,7 @@
         <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
@@ -1787,7 +1906,7 @@
         <v>66</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E19" s="1">
         <v>19</v>
@@ -2021,7 +2140,7 @@
         <v>94</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E27" s="1">
         <v>27</v>
@@ -2368,7 +2487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2379,7 +2498,7 @@
         <v>136</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="E39" s="1">
         <v>39</v>
@@ -2409,7 +2528,7 @@
         <v>139</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E40" s="1">
         <v>40</v>
@@ -2439,7 +2558,7 @@
         <v>142</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E41" s="1">
         <v>41</v>
@@ -2469,7 +2588,7 @@
         <v>145</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E42" s="1">
         <v>42</v>
@@ -2845,10 +2964,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>194</v>
@@ -2860,7 +2979,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1" t="s">
@@ -2875,13 +2994,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="E56" s="1">
         <v>55</v>
@@ -2890,7 +3009,7 @@
         <v>12</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1" t="s">
@@ -2905,10 +3024,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>194</v>
@@ -2920,14 +3039,14 @@
         <v>12</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J57" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15" x14ac:dyDescent="0.35">
@@ -2935,13 +3054,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E58" s="1">
         <v>57</v>
@@ -2950,14 +3069,14 @@
         <v>12</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J58" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/temp_traits.xlsx
+++ b/temp_traits.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FangCloudSync\R_WD360\Project\soyplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20DF783-7213-40B5-BF3B-B8C0CF04A953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E962464-F132-48DD-AC38-F99A8FC17430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4560" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="418">
   <si>
     <t>ID</t>
   </si>
@@ -382,599 +382,982 @@
     <t>Ineffective_Pods</t>
   </si>
   <si>
+    <t>Seed_Weight_per_Tested_Plant_(g)</t>
+  </si>
+  <si>
+    <t>植株备注</t>
+  </si>
+  <si>
+    <t>zhizhubeizhu</t>
+  </si>
+  <si>
+    <t>Plant_Notes</t>
+  </si>
+  <si>
+    <t>百粒重(g)</t>
+  </si>
+  <si>
+    <t>bailizhong</t>
+  </si>
+  <si>
+    <t>1_50</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>100-Seed_Weight_(g)</t>
+  </si>
+  <si>
+    <t>粒型</t>
+  </si>
+  <si>
+    <t>lixing</t>
+  </si>
+  <si>
+    <t>Seed_Shape</t>
+  </si>
+  <si>
+    <t>种皮色</t>
+  </si>
+  <si>
+    <t>zhongpise</t>
+  </si>
+  <si>
+    <t>Seed_Coat_Color</t>
+  </si>
+  <si>
+    <t>子叶色</t>
+  </si>
+  <si>
+    <t>ziyese</t>
+  </si>
+  <si>
+    <t>Cotyledon_Color</t>
+  </si>
+  <si>
+    <t>脐色</t>
+  </si>
+  <si>
+    <t>qise</t>
+  </si>
+  <si>
+    <t>Hilum_Color</t>
+  </si>
+  <si>
+    <t>种皮光泽</t>
+  </si>
+  <si>
+    <t>zhongpiguangze</t>
+  </si>
+  <si>
+    <t>Seed_Coat_Gloss</t>
+  </si>
+  <si>
+    <t>籽粒评价</t>
+  </si>
+  <si>
+    <t>zilipingjia</t>
+  </si>
+  <si>
+    <t>Seed_Evaluation</t>
+  </si>
+  <si>
+    <t>籽粒备注</t>
+  </si>
+  <si>
+    <t>zilibeizhu</t>
+  </si>
+  <si>
+    <t>Seed_Notes</t>
+  </si>
+  <si>
+    <t>小区面积(m2)</t>
+  </si>
+  <si>
+    <t>xiaoqumiaoji</t>
+  </si>
+  <si>
+    <t>0_100000</t>
+  </si>
+  <si>
+    <t>yield</t>
+  </si>
+  <si>
+    <t>Plot_Area_(m²)</t>
+  </si>
+  <si>
+    <t>xiaoquzhong</t>
+  </si>
+  <si>
+    <t>0_6000</t>
+  </si>
+  <si>
+    <t>Plot_Weight_(kg)</t>
+  </si>
+  <si>
+    <t>danbai</t>
+  </si>
+  <si>
+    <t>20_60</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>zhifang</t>
+  </si>
+  <si>
+    <t>10_30</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>含基因</t>
+  </si>
+  <si>
+    <t>hanjiyin</t>
+  </si>
+  <si>
+    <t>combination</t>
+  </si>
+  <si>
+    <t>Gene_Content</t>
+  </si>
+  <si>
+    <t>回交备注</t>
+  </si>
+  <si>
+    <t>huijiaobeizhu</t>
+  </si>
+  <si>
+    <t>Backcross_Notes</t>
+  </si>
+  <si>
+    <t>父本备注</t>
+  </si>
+  <si>
+    <t>fubenbeizhu</t>
+  </si>
+  <si>
+    <t>Parent_Line_Notes</t>
+  </si>
+  <si>
+    <t>做花数</t>
+  </si>
+  <si>
+    <t>zuohuashu</t>
+  </si>
+  <si>
+    <t>Number_of_Flowers_Produced</t>
+  </si>
+  <si>
+    <t>成活荚数</t>
+  </si>
+  <si>
+    <t>chenghuojiashu</t>
+  </si>
+  <si>
+    <t>Number_of_Pods_Set</t>
+  </si>
+  <si>
+    <t>收获粒数</t>
+  </si>
+  <si>
+    <t>shouhuolishu</t>
+  </si>
+  <si>
+    <t>Number_of_Seeds_Harvested</t>
+  </si>
+  <si>
+    <t>1-高抗_3-抗_5-中抗_7-不抗_99-分离</t>
+  </si>
+  <si>
+    <t>2-优_1-良_0-中_-1-差</t>
+  </si>
+  <si>
+    <t>1-披针_2-卵圆_3-椭圆_99-分离</t>
+  </si>
+  <si>
+    <t>1-淡绿_2-绿_3-深绿_99-分离</t>
+  </si>
+  <si>
+    <t>1-不倒_3-轻倒_5-中倒_7-重倒_9-严重倒</t>
+  </si>
+  <si>
+    <t>1-不落_2-半落_3-落_99-分离</t>
+  </si>
+  <si>
+    <t>3-无限_5-亚有限_7-有限_99-分离</t>
+  </si>
+  <si>
+    <t>1-灰褐_2-黄褐_3-褐_4-深褐_5-黑_99-分离</t>
+  </si>
+  <si>
+    <t>1-圆_2-扁圆_3-椭圆_4-扁椭圆_5-长椭圆_6-肾_99-分离</t>
+  </si>
+  <si>
+    <t>1-黄_2-绿_99-分离</t>
+  </si>
+  <si>
+    <t>1-黄_2-淡褐_3-褐_4-深褐_5-蓝_6-淡黑_7-黑_99-分离</t>
+  </si>
+  <si>
+    <t>0-无_1-微_2-强_99-分离</t>
+  </si>
+  <si>
+    <t>1-白_2-紫_99-分离</t>
+  </si>
+  <si>
+    <t>1-灰_2-棕_99-分离</t>
+  </si>
+  <si>
+    <t>抗拟茎点种腐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kangnijingdianzhongfu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phomopsisseed_decay_Resistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心亲本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hexinqinben</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core_parent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kangbing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kangchong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pest_Resistancce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disease-Resistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soybean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T059</t>
+  </si>
+  <si>
+    <t>播种期_C</t>
+  </si>
+  <si>
+    <t>T060</t>
+  </si>
+  <si>
+    <t>出苗期_C</t>
+  </si>
+  <si>
+    <t>T061</t>
+  </si>
+  <si>
+    <t>上胚轴色_C</t>
+  </si>
+  <si>
+    <t>T062</t>
+  </si>
+  <si>
+    <t>下胚轴色_C</t>
+  </si>
+  <si>
+    <t>T063</t>
+  </si>
+  <si>
+    <t>抗草甘膦_C</t>
+  </si>
+  <si>
+    <t>T064</t>
+  </si>
+  <si>
+    <t>苗期评价_C</t>
+  </si>
+  <si>
+    <t>T065</t>
+  </si>
+  <si>
+    <t>开花期_C</t>
+  </si>
+  <si>
+    <t>T066</t>
+  </si>
+  <si>
+    <t>花色_C</t>
+  </si>
+  <si>
+    <t>T067</t>
+  </si>
+  <si>
+    <t>叶形_C</t>
+  </si>
+  <si>
+    <t>T068</t>
+  </si>
+  <si>
+    <t>叶色_C</t>
+  </si>
+  <si>
+    <t>T069</t>
+  </si>
+  <si>
+    <t>花期评价_C</t>
+  </si>
+  <si>
+    <t>T070</t>
+  </si>
+  <si>
+    <t>抗花叶病毒_C</t>
+  </si>
+  <si>
+    <t>T071</t>
+  </si>
+  <si>
+    <t>抗孢囊线虫_C</t>
+  </si>
+  <si>
+    <t>T072</t>
+  </si>
+  <si>
+    <t>倒伏性_C</t>
+  </si>
+  <si>
+    <t>T073</t>
+  </si>
+  <si>
+    <t>鼓粒期_C</t>
+  </si>
+  <si>
+    <t>T074</t>
+  </si>
+  <si>
+    <t>鼓粒期评价_C</t>
+  </si>
+  <si>
+    <t>T075</t>
+  </si>
+  <si>
+    <t>落叶性_C</t>
+  </si>
+  <si>
+    <t>T076</t>
+  </si>
+  <si>
+    <t>裂荚性_C</t>
+  </si>
+  <si>
+    <t>T077</t>
+  </si>
+  <si>
+    <t>成熟期_C</t>
+  </si>
+  <si>
+    <t>T078</t>
+  </si>
+  <si>
+    <t>成熟期评价_C</t>
+  </si>
+  <si>
+    <t>T079</t>
+  </si>
+  <si>
+    <t>收获期_C</t>
+  </si>
+  <si>
+    <t>T080</t>
+  </si>
+  <si>
+    <t>田间备注_C</t>
+  </si>
+  <si>
+    <t>T081</t>
+  </si>
+  <si>
+    <t>考种株数_C</t>
+  </si>
+  <si>
+    <t>T082</t>
+  </si>
+  <si>
+    <t>植株评价_C</t>
+  </si>
+  <si>
+    <t>T083</t>
+  </si>
+  <si>
+    <t>结荚习性_C</t>
+  </si>
+  <si>
+    <t>T084</t>
+  </si>
+  <si>
+    <t>茸毛色_C</t>
+  </si>
+  <si>
+    <t>T085</t>
+  </si>
+  <si>
+    <t>荚熟色_C</t>
+  </si>
+  <si>
+    <t>T086</t>
+  </si>
+  <si>
+    <t>株高(cm)_C</t>
+  </si>
+  <si>
+    <t>T087</t>
+  </si>
+  <si>
+    <t>底荚高(cm)_C</t>
+  </si>
+  <si>
+    <t>T088</t>
+  </si>
+  <si>
+    <t>分枝数_C</t>
+  </si>
+  <si>
+    <t>T089</t>
+  </si>
+  <si>
+    <t>主茎节数_C</t>
+  </si>
+  <si>
+    <t>T090</t>
+  </si>
+  <si>
+    <t>有效荚_C</t>
+  </si>
+  <si>
+    <t>T091</t>
+  </si>
+  <si>
+    <t>无效荚_C</t>
+  </si>
+  <si>
+    <t>T092</t>
+  </si>
+  <si>
+    <t>T093</t>
+  </si>
+  <si>
+    <t>植株备注_C</t>
+  </si>
+  <si>
+    <t>T094</t>
+  </si>
+  <si>
+    <t>百粒重(g)_C</t>
+  </si>
+  <si>
+    <t>T095</t>
+  </si>
+  <si>
+    <t>粒型_C</t>
+  </si>
+  <si>
+    <t>T096</t>
+  </si>
+  <si>
+    <t>种皮色_C</t>
+  </si>
+  <si>
+    <t>T097</t>
+  </si>
+  <si>
+    <t>子叶色_C</t>
+  </si>
+  <si>
+    <t>T098</t>
+  </si>
+  <si>
+    <t>脐色_C</t>
+  </si>
+  <si>
+    <t>T099</t>
+  </si>
+  <si>
+    <t>种皮光泽_C</t>
+  </si>
+  <si>
+    <t>T100</t>
+  </si>
+  <si>
+    <t>籽粒评价_C</t>
+  </si>
+  <si>
+    <t>T101</t>
+  </si>
+  <si>
+    <t>籽粒备注_C</t>
+  </si>
+  <si>
+    <t>T102</t>
+  </si>
+  <si>
+    <t>小区面积(m2)_C</t>
+  </si>
+  <si>
+    <t>T103</t>
+  </si>
+  <si>
+    <t>小区重(kg)_C</t>
+  </si>
+  <si>
+    <t>T104</t>
+  </si>
+  <si>
+    <t>蛋白_C</t>
+  </si>
+  <si>
+    <t>T105</t>
+  </si>
+  <si>
+    <t>脂肪_C</t>
+  </si>
+  <si>
+    <t>T106</t>
+  </si>
+  <si>
+    <t>含基因_C</t>
+  </si>
+  <si>
+    <t>T107</t>
+  </si>
+  <si>
+    <t>回交备注_C</t>
+  </si>
+  <si>
+    <t>T108</t>
+  </si>
+  <si>
+    <t>父本备注_C</t>
+  </si>
+  <si>
+    <t>T109</t>
+  </si>
+  <si>
+    <t>做花数_C</t>
+  </si>
+  <si>
+    <t>T110</t>
+  </si>
+  <si>
+    <t>成活荚数_C</t>
+  </si>
+  <si>
+    <t>T111</t>
+  </si>
+  <si>
+    <t>收获粒数_C</t>
+  </si>
+  <si>
+    <t>T112</t>
+  </si>
+  <si>
+    <t>抗拟茎点种腐_C</t>
+  </si>
+  <si>
+    <t>T113</t>
+  </si>
+  <si>
+    <t>核心亲本_C</t>
+  </si>
+  <si>
+    <t>T114</t>
+  </si>
+  <si>
+    <t>抗病_C</t>
+  </si>
+  <si>
+    <t>T115</t>
+  </si>
+  <si>
+    <t>抗虫_C</t>
+  </si>
+  <si>
+    <t>T116</t>
+  </si>
+  <si>
+    <t>活秆成熟_C</t>
+  </si>
+  <si>
+    <t>huoganchengshu</t>
+  </si>
+  <si>
+    <t>T117</t>
+  </si>
+  <si>
+    <t>早衰_C</t>
+  </si>
+  <si>
+    <t>zaoshuai</t>
+  </si>
+  <si>
+    <t>T118</t>
+  </si>
+  <si>
+    <t>产量_C</t>
+  </si>
+  <si>
+    <t>chanliang</t>
+  </si>
+  <si>
+    <t>T119</t>
+  </si>
+  <si>
+    <t>测产株数_C</t>
+  </si>
+  <si>
+    <t>cechanzhushu</t>
+  </si>
+  <si>
+    <t>选单株数_C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xuandanzhushu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name_baiaoyun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活秆成熟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早衰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测产株数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选单株数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mature_with_green_stalks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Early_aging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Measured_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selected_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yield(kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亩产(kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shizhijiance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试纸检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_strip_detection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试纸检测_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-黄_2-绿_3-黑_4-褐_5-双色_99-分离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小区重(kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋白%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脂肪%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-否_1-是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-否_1-是_99-分离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-免疫_1-高抗_3-抗_7-感_9-高感_99-分离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-免疫_1-高抗_3-抗_5-中抗_7-感_9-高感_99-分离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-white_2-purple_99-segregating</t>
+  </si>
+  <si>
+    <t>2-excellent_1-good_0-fair_-1-poor</t>
+  </si>
+  <si>
+    <t>0-immune_1-highly-resistant_3-resistant_7-susceptible_9-highly-susceptible_99-segregating</t>
+  </si>
+  <si>
+    <t>0-immune_1-highly-resistant_3-resistant_5-Moderately-resistant_7-susceptible_9-highly-susceptible_99-segregating</t>
+  </si>
+  <si>
+    <t>1-lanceolate_2-ovate_3-oval_99-segregating</t>
+  </si>
+  <si>
+    <t>1-highlyResistant_3-resistant_5-moderatelyResistant_7-noResistant_99-segregating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-lightGreen_2-green_3-darkGreen_99-segregating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-immune_1-highlyResistant_3-resistant_7-susceptible_9-highlyusceptible_99-segregating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-immune_1-highly-resistant_3-resistant_7-susceptible_9-highlySusceptible_99-segregating</t>
+  </si>
+  <si>
+    <t>1-noLodging_3-lightLodging_5-fairLodging_7-severeLodging_9-verySevereLodging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-noCracking_5-lightCracking0-9_7-fairCrackgin9-25_9-easyCracking&gt;25_99-segregating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-不裂_5-轻裂0-9_7-中裂9-25_9-易裂&gt;25_99-分离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-indeterminate_5-semiDeterminate_7-determinate_99-segregating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-gray_2-brown_99-segregating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-grayBrown_2-yellowBrown_3-brown_4-darkBrown_5-black_99-segregating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-yellow_2-green_3-black_4-brown_5-doubleColor_99-segregating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-yellow_2-green_99-segregating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-yellow_2-lightBrown_3-brown_4-darkbrown_5-blue_6-lightBlack_7-black_99-segregating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-no_1-lihgt_2-strong_99-segregating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-round_2-flattenedRound_3-oval_4-flattenedOval_5-longOval_6-kidney_99-segregating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-no_1-yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-no_1-yes_99-segregating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-noDropping_2-harfDropping_3-dropping_99-segregating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_standard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完好粒率%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>褐斑粒率%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫斑粒率%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫蚀粒率%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wanhaolilv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zibanlilv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hebanlilv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chongshililv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rate_of_intact_grains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rate_of_purple_spotted_grains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rate_of_insect_damaged_grains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rate_of_brown_spotted_grains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0122</t>
+  </si>
+  <si>
+    <t>T0123</t>
+  </si>
+  <si>
+    <t>T0124</t>
+  </si>
+  <si>
+    <t>T0125</t>
+  </si>
+  <si>
+    <t>完好粒率_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫斑粒率_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>褐斑粒率_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫蚀粒率_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>考种株粒重(g)</t>
-  </si>
-  <si>
-    <t>danzhulizhong</t>
-  </si>
-  <si>
-    <t>0_10000</t>
-  </si>
-  <si>
-    <t>Seed_Weight_per_Tested_Plant_(g)</t>
-  </si>
-  <si>
-    <t>植株备注</t>
-  </si>
-  <si>
-    <t>zhizhubeizhu</t>
-  </si>
-  <si>
-    <t>Plant_Notes</t>
-  </si>
-  <si>
-    <t>百粒重(g)</t>
-  </si>
-  <si>
-    <t>bailizhong</t>
-  </si>
-  <si>
-    <t>1_50</t>
-  </si>
-  <si>
-    <t>seed</t>
-  </si>
-  <si>
-    <t>100-Seed_Weight_(g)</t>
-  </si>
-  <si>
-    <t>粒型</t>
-  </si>
-  <si>
-    <t>lixing</t>
-  </si>
-  <si>
-    <t>Seed_Shape</t>
-  </si>
-  <si>
-    <t>种皮色</t>
-  </si>
-  <si>
-    <t>zhongpise</t>
-  </si>
-  <si>
-    <t>Seed_Coat_Color</t>
-  </si>
-  <si>
-    <t>子叶色</t>
-  </si>
-  <si>
-    <t>ziyese</t>
-  </si>
-  <si>
-    <t>Cotyledon_Color</t>
-  </si>
-  <si>
-    <t>脐色</t>
-  </si>
-  <si>
-    <t>qise</t>
-  </si>
-  <si>
-    <t>Hilum_Color</t>
-  </si>
-  <si>
-    <t>种皮光泽</t>
-  </si>
-  <si>
-    <t>zhongpiguangze</t>
-  </si>
-  <si>
-    <t>Seed_Coat_Gloss</t>
-  </si>
-  <si>
-    <t>籽粒评价</t>
-  </si>
-  <si>
-    <t>zilipingjia</t>
-  </si>
-  <si>
-    <t>Seed_Evaluation</t>
-  </si>
-  <si>
-    <t>籽粒备注</t>
-  </si>
-  <si>
-    <t>zilibeizhu</t>
-  </si>
-  <si>
-    <t>Seed_Notes</t>
-  </si>
-  <si>
-    <t>小区面积(m2)</t>
-  </si>
-  <si>
-    <t>xiaoqumiaoji</t>
-  </si>
-  <si>
-    <t>0_100000</t>
-  </si>
-  <si>
-    <t>yield</t>
-  </si>
-  <si>
-    <t>Plot_Area_(m²)</t>
-  </si>
-  <si>
-    <t>小区重(kg)</t>
-  </si>
-  <si>
-    <t>xiaoquzhong</t>
-  </si>
-  <si>
-    <t>0_6000</t>
-  </si>
-  <si>
-    <t>Plot_Weight_(kg)</t>
-  </si>
-  <si>
-    <t>蛋白</t>
-  </si>
-  <si>
-    <t>danbai</t>
-  </si>
-  <si>
-    <t>20_60</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <t>脂肪</t>
-  </si>
-  <si>
-    <t>zhifang</t>
-  </si>
-  <si>
-    <t>10_30</t>
-  </si>
-  <si>
-    <t>Oil</t>
-  </si>
-  <si>
-    <t>含基因</t>
-  </si>
-  <si>
-    <t>hanjiyin</t>
-  </si>
-  <si>
-    <t>combination</t>
-  </si>
-  <si>
-    <t>Gene_Content</t>
-  </si>
-  <si>
-    <t>回交备注</t>
-  </si>
-  <si>
-    <t>huijiaobeizhu</t>
-  </si>
-  <si>
-    <t>Backcross_Notes</t>
-  </si>
-  <si>
-    <t>父本备注</t>
-  </si>
-  <si>
-    <t>fubenbeizhu</t>
-  </si>
-  <si>
-    <t>Parent_Line_Notes</t>
-  </si>
-  <si>
-    <t>做花数</t>
-  </si>
-  <si>
-    <t>zuohuashu</t>
-  </si>
-  <si>
-    <t>Number_of_Flowers_Produced</t>
-  </si>
-  <si>
-    <t>成活荚数</t>
-  </si>
-  <si>
-    <t>chenghuojiashu</t>
-  </si>
-  <si>
-    <t>Number_of_Pods_Set</t>
-  </si>
-  <si>
-    <t>收获粒数</t>
-  </si>
-  <si>
-    <t>shouhuolishu</t>
-  </si>
-  <si>
-    <t>Number_of_Seeds_Harvested</t>
-  </si>
-  <si>
-    <t>1-高抗_3-抗_5-中抗_7-不抗_99-分离</t>
-  </si>
-  <si>
-    <t>2-优_1-良_0-中_-1-差</t>
-  </si>
-  <si>
-    <t>1-披针_2-卵圆_3-椭圆_99-分离</t>
-  </si>
-  <si>
-    <t>1-淡绿_2-绿_3-深绿_99-分离</t>
-  </si>
-  <si>
-    <t>0-免疫_1-高抗_3-抗_7-感_9-高感</t>
-  </si>
-  <si>
-    <t>1-不倒_3-轻倒_5-中倒_7-重倒_9-严重倒</t>
-  </si>
-  <si>
-    <t>1-不落_2-半落_3-落_99-分离</t>
-  </si>
-  <si>
-    <t>3-无限_5-亚有限_7-有限_99-分离</t>
-  </si>
-  <si>
-    <t>1-灰褐_2-黄褐_3-褐_4-深褐_5-黑_99-分离</t>
-  </si>
-  <si>
-    <t>1-圆_2-扁圆_3-椭圆_4-扁椭圆_5-长椭圆_6-肾_99-分离</t>
-  </si>
-  <si>
-    <t>1-黄_2-绿_99-分离</t>
-  </si>
-  <si>
-    <t>1-黄_2-淡褐_3-褐_4-深褐_5-蓝_6-淡黑_7-黑_99-分离</t>
-  </si>
-  <si>
-    <t>0-无_1-微_2-强_99-分离</t>
-  </si>
-  <si>
-    <t>1-白_2-紫_99-分离</t>
-  </si>
-  <si>
-    <t>3-不裂_5-轻裂0-9_7-中9-25_9-易裂&gt;25_99-分离</t>
-  </si>
-  <si>
-    <t>1-灰_2-棕_99-分离</t>
-  </si>
-  <si>
-    <t>抗拟茎点种腐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kangnijingdianzhongfu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Phomopsisseed_decay_Resistance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>核心亲本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hexinqinben</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_1-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core_parent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抗病</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抗虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kangbing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kangchong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pest_Resistancce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Disease-Resistance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soybean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>免疫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_1-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>高抗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_3-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>抗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_5-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>中抗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_7-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>感</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_9-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>高感</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>黄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_2-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>绿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_3-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>黑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_4-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>褐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_5-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>双色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_99-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>分离</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaozhongzhulizhong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考种株粒重(g)_C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -982,7 +1365,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -998,6 +1381,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -1006,15 +1409,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1037,14 +1452,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1341,10 +1795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1356,12 +1810,14 @@
     <col min="5" max="5" width="6.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7265625" customWidth="1"/>
+    <col min="8" max="8" width="110" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.7265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.453125" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1392,8 +1848,17 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1420,8 +1885,17 @@
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1448,19 +1922,28 @@
       <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="K3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>203</v>
+      <c r="D4" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -1468,18 +1951,29 @@
       <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1490,7 +1984,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
@@ -1501,15 +1995,26 @@
       <c r="G5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>369</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1520,7 +2025,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
@@ -1531,15 +2036,26 @@
       <c r="G6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1550,7 +2066,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E7" s="1">
         <v>6</v>
@@ -1561,15 +2077,26 @@
       <c r="G7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>370</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1596,8 +2123,17 @@
       <c r="J8" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1608,7 +2144,7 @@
         <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
@@ -1619,15 +2155,26 @@
       <c r="G9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>369</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1638,7 +2185,7 @@
         <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E10" s="1">
         <v>9</v>
@@ -1649,15 +2196,26 @@
       <c r="G10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="I10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M10">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1668,7 +2226,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
@@ -1679,15 +2237,26 @@
       <c r="G11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>375</v>
+      </c>
       <c r="I11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1698,7 +2267,7 @@
         <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E12" s="1">
         <v>11</v>
@@ -1709,15 +2278,26 @@
       <c r="G12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>370</v>
+      </c>
       <c r="I12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1728,7 +2308,7 @@
         <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>194</v>
+        <v>365</v>
       </c>
       <c r="E13" s="1">
         <v>12</v>
@@ -1739,15 +2319,26 @@
       <c r="G13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K13" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M13">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1758,7 +2349,7 @@
         <v>51</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>194</v>
+        <v>365</v>
       </c>
       <c r="E14" s="1">
         <v>14</v>
@@ -1769,15 +2360,26 @@
       <c r="G14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="I14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K14" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1788,7 +2390,7 @@
         <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E15" s="1">
         <v>15</v>
@@ -1799,15 +2401,26 @@
       <c r="G15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>378</v>
+      </c>
       <c r="I15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K15" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="M15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1834,8 +2447,17 @@
       <c r="J16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K16" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1846,7 +2468,7 @@
         <v>60</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E17" s="1">
         <v>17</v>
@@ -1857,15 +2479,26 @@
       <c r="G17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>370</v>
+      </c>
       <c r="I17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K17" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1876,7 +2509,7 @@
         <v>63</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E18" s="1">
         <v>18</v>
@@ -1887,15 +2520,26 @@
       <c r="G18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="I18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K18" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1906,7 +2550,7 @@
         <v>66</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>204</v>
+        <v>380</v>
       </c>
       <c r="E19" s="1">
         <v>19</v>
@@ -1917,15 +2561,26 @@
       <c r="G19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>379</v>
+      </c>
       <c r="I19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K19" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M19">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1952,8 +2607,17 @@
       <c r="J20" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K20" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="M20">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1964,7 +2628,7 @@
         <v>72</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E21" s="1">
         <v>21</v>
@@ -1975,15 +2639,26 @@
       <c r="G21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>370</v>
+      </c>
       <c r="I21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K21" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2010,8 +2685,17 @@
       <c r="J22" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K22" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="M22">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2038,8 +2722,17 @@
       <c r="J23" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K23" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="M23">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2050,7 +2743,7 @@
         <v>82</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>83</v>
+        <v>347</v>
       </c>
       <c r="E24" s="1">
         <v>24</v>
@@ -2061,15 +2754,26 @@
       <c r="G24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>347</v>
+      </c>
       <c r="I24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K24" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2080,7 +2784,7 @@
         <v>88</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E25" s="1">
         <v>25</v>
@@ -2091,15 +2795,26 @@
       <c r="G25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>370</v>
+      </c>
       <c r="I25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K25" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2110,7 +2825,7 @@
         <v>91</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E26" s="1">
         <v>26</v>
@@ -2121,15 +2836,26 @@
       <c r="G26" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>381</v>
+      </c>
       <c r="I26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K26" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M26">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2140,7 +2866,7 @@
         <v>94</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E27" s="1">
         <v>27</v>
@@ -2151,15 +2877,26 @@
       <c r="G27" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K27" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="M27">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2170,7 +2907,7 @@
         <v>97</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E28" s="1">
         <v>28</v>
@@ -2181,15 +2918,26 @@
       <c r="G28" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>383</v>
+      </c>
       <c r="I28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K28" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2211,15 +2959,26 @@
       <c r="G29" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="I29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K29" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="M29">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2241,15 +3000,26 @@
       <c r="G30" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="I30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K30" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M30">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2271,15 +3041,26 @@
       <c r="G31" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="I31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K31" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="M31">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2301,15 +3082,26 @@
       <c r="G32" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="I32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K32" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="M32">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2331,15 +3123,26 @@
       <c r="G33" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="I33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K33" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="M33">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2361,53 +3164,75 @@
       <c r="G34" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="I34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+      <c r="K34" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="M34">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E35" s="2">
+        <v>35</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E35" s="1">
-        <v>35</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" s="1" t="s">
+      <c r="H35" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K35" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="M35" s="11">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
@@ -2417,7 +3242,7 @@
         <v>84</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1" t="s">
@@ -2426,236 +3251,322 @@
       <c r="J36" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K36" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E37" s="1">
         <v>37</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H37" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="I37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K37" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="M37">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E38" s="1">
         <v>38</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H38" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>388</v>
+      </c>
       <c r="I38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="K38" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="M38">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>222</v>
+        <v>359</v>
       </c>
       <c r="E39" s="1">
         <v>39</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H39" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="I39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K39" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="M39">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E40" s="1">
         <v>40</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H40" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>385</v>
+      </c>
       <c r="I40" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K40" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="M40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E41" s="1">
         <v>41</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H41" s="1"/>
+        <v>140</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="I41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K41" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="M41">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E42" s="1">
         <v>42</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H42" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="I42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K42" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="M42">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E43" s="1">
         <v>43</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H43" s="1"/>
+        <v>146</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>370</v>
+      </c>
       <c r="I43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K43" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="M43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1">
         <v>44</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
@@ -2664,146 +3575,199 @@
       <c r="J44" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K44" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="M44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E45" s="1">
         <v>45</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H45" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="I45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K45" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="M45">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>158</v>
+        <v>360</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E46" s="1">
         <v>46</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H46" s="1"/>
       <c r="I46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K46" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M46">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>162</v>
+        <v>361</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E47" s="1">
         <v>47</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H47" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="I47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K47" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="M47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>167</v>
+        <v>362</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E48" s="1">
         <v>48</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H48" s="1"/>
+        <v>164</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="I48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K48" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1">
         <v>49</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
@@ -2812,26 +3776,35 @@
       <c r="J49" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K49" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="M49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1">
         <v>50</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
@@ -2840,26 +3813,35 @@
       <c r="J50" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K50" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="M50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1">
         <v>51</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1" t="s">
@@ -2868,16 +3850,25 @@
       <c r="J51" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K51" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="M51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>83</v>
@@ -2886,28 +3877,39 @@
         <v>52</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H52" s="1"/>
+        <v>177</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="I52" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K52" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>83</v>
@@ -2916,28 +3918,39 @@
         <v>53</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H53" s="1"/>
+        <v>180</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="I53" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K53" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="M53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>83</v>
@@ -2946,31 +3959,42 @@
         <v>54</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H54" s="1"/>
+        <v>183</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="I54" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="K54" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="M54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>206</v>
+      <c r="B55" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>194</v>
+        <v>365</v>
       </c>
       <c r="E55" s="1">
         <v>13</v>
@@ -2979,28 +4003,39 @@
         <v>12</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H55" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>371</v>
+      </c>
       <c r="I55" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="K55" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>209</v>
+      <c r="B56" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>211</v>
+        <v>363</v>
       </c>
       <c r="E56" s="1">
         <v>55</v>
@@ -3009,28 +4044,39 @@
         <v>12</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H56" s="1"/>
+        <v>203</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="I56" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="K56" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>213</v>
+      <c r="B57" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>194</v>
+        <v>365</v>
       </c>
       <c r="E57" s="1">
         <v>56</v>
@@ -3039,28 +4085,39 @@
         <v>12</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H57" s="1"/>
+        <v>209</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>371</v>
+      </c>
       <c r="I57" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>214</v>
+      <c r="B58" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>221</v>
+        <v>366</v>
       </c>
       <c r="E58" s="1">
         <v>57</v>
@@ -3069,14 +4126,431 @@
         <v>12</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H58" s="1"/>
+        <v>208</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="I58" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E59" s="1">
+        <v>58</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E60" s="1">
+        <v>59</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E61" s="1">
+        <v>60</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E62" s="1">
+        <v>61</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="M62">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E63" s="6">
+        <v>62</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1">
+        <v>63</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="M64" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="5">
+        <v>64</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E65" s="1">
+        <v>64</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="M65" s="8">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="5">
+        <v>65</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E66" s="1">
+        <v>65</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="M66" s="8">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="5">
+        <v>66</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E67" s="1">
+        <v>66</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="M67" s="8">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="5">
+        <v>67</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E68" s="1">
+        <v>67</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="M68" s="8">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/temp_traits.xlsx
+++ b/temp_traits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FangCloudSync\R_WD360\Project\soyplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E962464-F132-48DD-AC38-F99A8FC17430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0264BB24-8D28-478B-BA0B-1C2616920315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4560" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-795" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="423">
   <si>
     <t>ID</t>
   </si>
@@ -148,9 +148,6 @@
     <t>叶色</t>
   </si>
   <si>
-    <t xml:space="preserve"> yese</t>
-  </si>
-  <si>
     <t>Leaf_Color</t>
   </si>
   <si>
@@ -475,9 +472,6 @@
     <t>小区面积(m2)</t>
   </si>
   <si>
-    <t>xiaoqumiaoji</t>
-  </si>
-  <si>
     <t>0_100000</t>
   </si>
   <si>
@@ -1030,12 +1024,6 @@
   </si>
   <si>
     <t>T118</t>
-  </si>
-  <si>
-    <t>产量_C</t>
-  </si>
-  <si>
-    <t>chanliang</t>
   </si>
   <si>
     <t>T119</t>
@@ -1358,6 +1346,42 @@
   </si>
   <si>
     <t>考种株粒重(g)_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoqumianji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muchan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亩产_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育期(d)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shengyuqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30_200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1480,7 +1504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1499,6 +1523,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1795,17 +1829,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G32" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.90625" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.7265625" customWidth="1"/>
     <col min="5" max="5" width="6.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
@@ -1824,7 +1861,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1849,13 +1886,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -1865,7 +1902,7 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1"/>
@@ -1886,10 +1923,10 @@
         <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M2">
         <v>101</v>
@@ -1902,7 +1939,7 @@
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="1"/>
@@ -1923,10 +1960,10 @@
         <v>15</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M3">
         <v>102</v>
@@ -1939,11 +1976,11 @@
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -1955,7 +1992,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>14</v>
@@ -1964,10 +2001,10 @@
         <v>22</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -1980,11 +2017,11 @@
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
@@ -1996,7 +2033,7 @@
         <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>14</v>
@@ -2005,10 +2042,10 @@
         <v>22</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -2021,11 +2058,11 @@
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
@@ -2037,7 +2074,7 @@
         <v>28</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>14</v>
@@ -2046,10 +2083,10 @@
         <v>22</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -2062,11 +2099,11 @@
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E7" s="1">
         <v>6</v>
@@ -2078,7 +2115,7 @@
         <v>31</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>14</v>
@@ -2087,10 +2124,10 @@
         <v>22</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -2103,7 +2140,7 @@
       <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="1"/>
@@ -2124,10 +2161,10 @@
         <v>15</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M8">
         <v>103</v>
@@ -2140,11 +2177,11 @@
       <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
@@ -2156,7 +2193,7 @@
         <v>37</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>14</v>
@@ -2165,10 +2202,10 @@
         <v>22</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M9">
         <v>108</v>
@@ -2181,11 +2218,11 @@
       <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E10" s="1">
         <v>9</v>
@@ -2197,7 +2234,7 @@
         <v>40</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>14</v>
@@ -2206,10 +2243,10 @@
         <v>22</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M10">
         <v>107</v>
@@ -2222,11 +2259,11 @@
       <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>42</v>
+      <c r="C11" s="12" t="s">
+        <v>415</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
@@ -2235,10 +2272,10 @@
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>14</v>
@@ -2247,10 +2284,10 @@
         <v>22</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -2261,13 +2298,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E12" s="1">
         <v>11</v>
@@ -2276,10 +2313,10 @@
         <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>14</v>
@@ -2288,10 +2325,10 @@
         <v>22</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -2302,13 +2339,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E13" s="1">
         <v>12</v>
@@ -2317,10 +2354,10 @@
         <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>14</v>
@@ -2329,10 +2366,10 @@
         <v>22</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M13">
         <v>116</v>
@@ -2343,13 +2380,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E14" s="1">
         <v>14</v>
@@ -2358,10 +2395,10 @@
         <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>14</v>
@@ -2370,10 +2407,10 @@
         <v>22</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -2384,13 +2421,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E15" s="1">
         <v>15</v>
@@ -2399,10 +2436,10 @@
         <v>12</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>14</v>
@@ -2411,10 +2448,10 @@
         <v>22</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M15">
         <v>114</v>
@@ -2425,10 +2462,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
@@ -2438,7 +2475,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
@@ -2448,10 +2485,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -2462,13 +2499,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E17" s="1">
         <v>17</v>
@@ -2477,10 +2514,10 @@
         <v>12</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>14</v>
@@ -2489,10 +2526,10 @@
         <v>22</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -2503,13 +2540,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E18" s="1">
         <v>18</v>
@@ -2518,10 +2555,10 @@
         <v>12</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>14</v>
@@ -2530,10 +2567,10 @@
         <v>22</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M18">
         <v>113</v>
@@ -2544,13 +2581,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E19" s="1">
         <v>19</v>
@@ -2559,10 +2596,10 @@
         <v>12</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>14</v>
@@ -2571,10 +2608,10 @@
         <v>22</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M19">
         <v>112</v>
@@ -2585,10 +2622,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1">
@@ -2598,7 +2635,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
@@ -2608,10 +2645,10 @@
         <v>15</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M20">
         <v>104</v>
@@ -2622,13 +2659,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E21" s="1">
         <v>21</v>
@@ -2637,10 +2674,10 @@
         <v>12</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>14</v>
@@ -2649,10 +2686,10 @@
         <v>22</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -2663,10 +2700,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
@@ -2676,7 +2713,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
@@ -2686,10 +2723,10 @@
         <v>15</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M22">
         <v>105</v>
@@ -2700,10 +2737,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1">
@@ -2713,20 +2750,20 @@
         <v>12</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M23">
         <v>118</v>
@@ -2737,37 +2774,37 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E24" s="1">
         <v>24</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="K24" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M24">
         <v>200</v>
@@ -2778,25 +2815,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E25" s="1">
         <v>25</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>14</v>
@@ -2805,10 +2842,10 @@
         <v>22</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M25">
         <v>2</v>
@@ -2819,25 +2856,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E26" s="1">
         <v>26</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>14</v>
@@ -2846,10 +2883,10 @@
         <v>22</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M26">
         <v>110</v>
@@ -2860,25 +2897,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E27" s="1">
         <v>27</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>14</v>
@@ -2887,10 +2924,10 @@
         <v>22</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M27">
         <v>109</v>
@@ -2901,25 +2938,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E28" s="1">
         <v>28</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>14</v>
@@ -2928,10 +2965,10 @@
         <v>22</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M28">
         <v>2</v>
@@ -2942,37 +2979,37 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="E29" s="1">
         <v>29</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M29">
         <v>201</v>
@@ -2983,37 +3020,37 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="E30" s="1">
         <v>30</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M30">
         <v>202</v>
@@ -3024,37 +3061,37 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="E31" s="1">
         <v>31</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M31">
         <v>204</v>
@@ -3065,37 +3102,37 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E32" s="1">
         <v>32</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M32">
         <v>203</v>
@@ -3106,37 +3143,37 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E33" s="1">
         <v>33</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M33">
         <v>205</v>
@@ -3147,37 +3184,37 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="D34" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E34" s="1">
         <v>34</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M34">
         <v>206</v>
@@ -3188,37 +3225,37 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>412</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E35" s="2">
         <v>35</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M35" s="11">
         <v>208</v>
@@ -3229,33 +3266,33 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
         <v>36</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M36">
         <v>2</v>
@@ -3266,37 +3303,37 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="E37" s="1">
         <v>37</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="H37" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M37">
         <v>209</v>
@@ -3307,25 +3344,25 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E38" s="1">
         <v>38</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>14</v>
@@ -3334,12 +3371,12 @@
         <v>22</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="M38">
+        <v>282</v>
+      </c>
+      <c r="M38" s="15">
         <v>217</v>
       </c>
     </row>
@@ -3348,25 +3385,25 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E39" s="1">
         <v>39</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>14</v>
@@ -3375,10 +3412,10 @@
         <v>22</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M39">
         <v>215</v>
@@ -3389,25 +3426,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E40" s="1">
         <v>40</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>14</v>
@@ -3416,10 +3453,10 @@
         <v>22</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M40">
         <v>3</v>
@@ -3430,25 +3467,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="D41" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E41" s="1">
         <v>41</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>14</v>
@@ -3457,12 +3494,12 @@
         <v>22</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="M41">
+        <v>288</v>
+      </c>
+      <c r="M41" s="15">
         <v>216</v>
       </c>
     </row>
@@ -3471,25 +3508,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E42" s="1">
         <v>42</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>14</v>
@@ -3498,12 +3535,12 @@
         <v>22</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="M42">
+        <v>290</v>
+      </c>
+      <c r="M42" s="15">
         <v>218</v>
       </c>
     </row>
@@ -3512,25 +3549,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E43" s="1">
         <v>43</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>14</v>
@@ -3539,10 +3576,10 @@
         <v>22</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M43">
         <v>3</v>
@@ -3553,33 +3590,33 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1">
         <v>44</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M44">
         <v>3</v>
@@ -3590,39 +3627,39 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="E45" s="1">
         <v>45</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="M45">
+        <v>296</v>
+      </c>
+      <c r="M45" s="15">
         <v>301</v>
       </c>
     </row>
@@ -3631,37 +3668,37 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>155</v>
+        <v>356</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E46" s="1">
         <v>46</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M46">
         <v>303</v>
@@ -3672,37 +3709,37 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>158</v>
+        <v>357</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E47" s="1">
         <v>47</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M47">
         <v>5</v>
@@ -3713,37 +3750,37 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>162</v>
+        <v>358</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E48" s="1">
         <v>48</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M48">
         <v>5</v>
@@ -3754,33 +3791,33 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1">
         <v>49</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M49">
         <v>6</v>
@@ -3791,33 +3828,33 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1">
         <v>50</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M50">
         <v>6</v>
@@ -3828,33 +3865,33 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1">
         <v>51</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M51">
         <v>6</v>
@@ -3865,37 +3902,37 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E52" s="1">
         <v>52</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M52">
         <v>6</v>
@@ -3906,37 +3943,37 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E53" s="1">
         <v>53</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M53">
         <v>6</v>
@@ -3947,37 +3984,37 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E54" s="1">
         <v>54</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M54">
         <v>6</v>
@@ -3988,13 +4025,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>197</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E55" s="1">
         <v>13</v>
@@ -4003,10 +4040,10 @@
         <v>12</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>14</v>
@@ -4015,10 +4052,10 @@
         <v>22</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M55">
         <v>1</v>
@@ -4029,13 +4066,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>200</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E56" s="1">
         <v>55</v>
@@ -4044,10 +4081,10 @@
         <v>12</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>14</v>
@@ -4056,10 +4093,10 @@
         <v>22</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -4070,13 +4107,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C57" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="D57" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E57" s="1">
         <v>56</v>
@@ -4085,22 +4122,22 @@
         <v>12</v>
       </c>
       <c r="G57" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J57" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="K57" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M57">
         <v>1</v>
@@ -4111,13 +4148,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C58" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="D58" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E58" s="1">
         <v>57</v>
@@ -4126,22 +4163,22 @@
         <v>12</v>
       </c>
       <c r="G58" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="J58" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="M58">
         <v>1</v>
@@ -4152,13 +4189,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E59" s="1">
         <v>58</v>
@@ -4167,22 +4204,22 @@
         <v>12</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M59">
         <v>1</v>
@@ -4193,13 +4230,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E60" s="1">
         <v>59</v>
@@ -4208,22 +4245,22 @@
         <v>12</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M60">
         <v>1</v>
@@ -4234,13 +4271,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>333</v>
+        <v>416</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E61" s="1">
         <v>60</v>
@@ -4249,25 +4286,25 @@
         <v>12</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>332</v>
+        <v>417</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
@@ -4275,13 +4312,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E62" s="1">
         <v>61</v>
@@ -4290,24 +4327,24 @@
         <v>12</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="M62">
+        <v>331</v>
+      </c>
+      <c r="M62" s="15">
         <v>302</v>
       </c>
     </row>
@@ -4316,13 +4353,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E63" s="6">
         <v>62</v>
@@ -4331,22 +4368,22 @@
         <v>12</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -4357,33 +4394,33 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1">
         <v>63</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M64" s="8">
         <v>3</v>
@@ -4394,37 +4431,37 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C65" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="D65" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="E65" s="1">
         <v>64</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G65" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>406</v>
-      </c>
       <c r="K65" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L65" s="9" t="s">
         <v>407</v>
-      </c>
-      <c r="L65" s="9" t="s">
-        <v>411</v>
       </c>
       <c r="M65" s="8">
         <v>210</v>
@@ -4435,37 +4472,37 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E66" s="1">
         <v>65</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="K66" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="L66" s="9" t="s">
         <v>408</v>
-      </c>
-      <c r="L66" s="9" t="s">
-        <v>412</v>
       </c>
       <c r="M66" s="8">
         <v>211</v>
@@ -4476,37 +4513,37 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E67" s="1">
         <v>66</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G67" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="K67" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J67" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="K67" s="1" t="s">
+      <c r="L67" s="9" t="s">
         <v>409</v>
-      </c>
-      <c r="L67" s="9" t="s">
-        <v>413</v>
       </c>
       <c r="M67" s="8">
         <v>212</v>
@@ -4517,45 +4554,86 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C68" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="C68" s="10" t="s">
-        <v>400</v>
-      </c>
       <c r="D68" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E68" s="1">
         <v>67</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J68" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="K68" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="K68" s="1" t="s">
+      <c r="L68" s="9" t="s">
         <v>410</v>
-      </c>
-      <c r="L68" s="9" t="s">
-        <v>414</v>
       </c>
       <c r="M68" s="8">
         <v>213</v>
       </c>
     </row>
+    <row r="69" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E69" s="1">
+        <v>68</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M69">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J56">
-    <sortCondition ref="A1:A56"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M69">
+    <sortCondition ref="A1:A69"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
